--- a/智库停止采集网站问题(299_777)-20220527.xlsx
+++ b/智库停止采集网站问题(299_777)-20220527.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gerapy\projects\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0986D43-928C-4E07-A0D4-E48E31F314C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB38E7E-8A02-46B6-9BA8-0F4F6FE27768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{98ECC274-F321-457B-899E-F66266E5CB0E}"/>
+    <workbookView xWindow="6450" yWindow="0" windowWidth="19125" windowHeight="15750" xr2:uid="{98ECC274-F321-457B-899E-F66266E5CB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="智库停止采集网站问题" sheetId="2" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <t>Cato Institute</t>
   </si>
   <si>
-    <t>需要翻墙代理，网站改版链接失效</t>
-  </si>
-  <si>
     <t>网站改版</t>
   </si>
   <si>
@@ -1193,6 +1190,10 @@
   </si>
   <si>
     <t>http://sparkpolicy.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要翻墙代理，有cdn反爬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1258,7 +1259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1268,12 +1269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,7 +1296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1317,13 +1312,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
@@ -1648,7 +1640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1661,22 +1653,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1684,16 +1676,16 @@
         <v>445</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2">
         <v>840</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1701,16 +1693,16 @@
         <v>732</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C3">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1718,16 +1710,16 @@
         <v>680</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4">
         <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1735,16 +1727,16 @@
         <v>585</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C5">
         <v>365</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1752,16 +1744,16 @@
         <v>584</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C6">
         <v>366</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1769,16 +1761,16 @@
         <v>362</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>1426</v>
       </c>
       <c r="D7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
         <v>117</v>
-      </c>
-      <c r="E7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1786,16 +1778,16 @@
         <v>505</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8">
         <v>585</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1803,16 +1795,16 @@
         <v>493</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9">
         <v>662</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1820,16 +1812,16 @@
         <v>380</v>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C10">
         <v>1258</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1837,16 +1829,16 @@
         <v>516</v>
       </c>
       <c r="B11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C11">
         <v>546</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1854,16 +1846,16 @@
         <v>719</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12">
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1871,16 +1863,16 @@
         <v>491</v>
       </c>
       <c r="B13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C13">
         <v>671</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1888,16 +1880,16 @@
         <v>664</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14">
         <v>148</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1905,16 +1897,16 @@
         <v>650</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15">
         <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1939,7 +1931,7 @@
         <v>769</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1948,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1956,7 +1948,7 @@
         <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>11761</v>
@@ -1965,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1973,7 +1965,7 @@
         <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>10977</v>
@@ -1982,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1990,7 +1982,7 @@
         <v>682</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C20">
         <v>113</v>
@@ -1999,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2007,7 +1999,7 @@
         <v>701</v>
       </c>
       <c r="B21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C21">
         <v>76</v>
@@ -2016,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2024,7 +2016,7 @@
         <v>590</v>
       </c>
       <c r="B22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C22">
         <v>360</v>
@@ -2033,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2041,7 +2033,7 @@
         <v>257</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>2807</v>
@@ -2050,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2075,7 +2067,7 @@
         <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C25">
         <v>10132</v>
@@ -2084,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2092,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C26">
         <v>266699</v>
@@ -2101,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2109,7 +2101,7 @@
         <v>96</v>
       </c>
       <c r="B27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C27">
         <v>9868</v>
@@ -2118,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2126,7 +2118,7 @@
         <v>470</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28">
         <v>732</v>
@@ -2135,7 +2127,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2143,7 +2135,7 @@
         <v>632</v>
       </c>
       <c r="B29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C29">
         <v>223</v>
@@ -2152,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2160,7 +2152,7 @@
         <v>415</v>
       </c>
       <c r="B30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C30">
         <v>1011</v>
@@ -2169,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2177,7 +2169,7 @@
         <v>630</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C31">
         <v>224</v>
@@ -2186,7 +2178,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -2194,7 +2186,7 @@
         <v>409</v>
       </c>
       <c r="B32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C32">
         <v>1042</v>
@@ -2203,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2211,7 +2203,7 @@
         <v>704</v>
       </c>
       <c r="B33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C33">
         <v>69</v>
@@ -2220,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2228,7 +2220,7 @@
         <v>161</v>
       </c>
       <c r="B34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C34">
         <v>5661</v>
@@ -2242,7 +2234,7 @@
         <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C35">
         <v>9190</v>
@@ -2251,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -2259,7 +2251,7 @@
         <v>633</v>
       </c>
       <c r="B36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C36">
         <v>223</v>
@@ -2268,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -2276,7 +2268,7 @@
         <v>262</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C37">
         <v>2720</v>
@@ -2285,7 +2277,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -2293,7 +2285,7 @@
         <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C38">
         <v>9288</v>
@@ -2302,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -2310,7 +2302,7 @@
         <v>339</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39">
         <v>1664</v>
@@ -2319,7 +2311,7 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -2327,7 +2319,7 @@
         <v>636</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40">
         <v>210</v>
@@ -2336,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2344,7 +2336,7 @@
         <v>272</v>
       </c>
       <c r="B41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C41">
         <v>2491</v>
@@ -2353,7 +2345,7 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2361,7 +2353,7 @@
         <v>394</v>
       </c>
       <c r="B42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C42">
         <v>1162</v>
@@ -2370,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -2378,7 +2370,7 @@
         <v>695</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C43">
         <v>90</v>
@@ -2387,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -2395,7 +2387,7 @@
         <v>651</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C44">
         <v>188</v>
@@ -2404,7 +2396,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -2412,7 +2404,7 @@
         <v>672</v>
       </c>
       <c r="B45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C45">
         <v>133</v>
@@ -2421,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -2429,7 +2421,7 @@
         <v>160</v>
       </c>
       <c r="B46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C46">
         <v>5702</v>
@@ -2443,7 +2435,7 @@
         <v>277</v>
       </c>
       <c r="B47" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C47">
         <v>2428</v>
@@ -2452,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -2460,7 +2452,7 @@
         <v>450</v>
       </c>
       <c r="B48" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C48">
         <v>815</v>
@@ -2469,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2477,7 +2469,7 @@
         <v>629</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C49">
         <v>226</v>
@@ -2486,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2494,7 +2486,7 @@
         <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C50">
         <v>8254</v>
@@ -2503,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2511,7 +2503,7 @@
         <v>112</v>
       </c>
       <c r="B51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51">
         <v>8616</v>
@@ -2520,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -2528,7 +2520,7 @@
         <v>666</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C52">
         <v>140</v>
@@ -2537,7 +2529,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -2545,7 +2537,7 @@
         <v>730</v>
       </c>
       <c r="B53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C53">
         <v>29</v>
@@ -2554,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -2562,7 +2554,7 @@
         <v>649</v>
       </c>
       <c r="B54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C54">
         <v>192</v>
@@ -2571,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -2579,7 +2571,7 @@
         <v>587</v>
       </c>
       <c r="B55" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C55">
         <v>363</v>
@@ -2588,7 +2580,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2596,7 +2588,7 @@
         <v>417</v>
       </c>
       <c r="B56" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C56">
         <v>986</v>
@@ -2605,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -2613,7 +2605,7 @@
         <v>648</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C57">
         <v>193</v>
@@ -2622,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -2630,16 +2622,16 @@
         <v>270</v>
       </c>
       <c r="B58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58">
         <v>2514</v>
       </c>
       <c r="D58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" t="s">
         <v>89</v>
-      </c>
-      <c r="E58" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -2647,7 +2639,7 @@
         <v>36</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C59" s="2">
         <v>20811</v>
@@ -2656,14 +2648,14 @@
         <v>10</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>15</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C60" s="2">
@@ -2680,8 +2672,8 @@
       <c r="A61" s="2">
         <v>770</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>297</v>
+      <c r="B61" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -2690,10 +2682,10 @@
         <v>10</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>374</v>
+        <v>297</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2706,19 +2698,19 @@
       <c r="C62" s="2">
         <v>36052</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>16</v>
+        <v>381</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>56</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>308</v>
+      <c r="B63" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="C63" s="2">
         <v>14668</v>
@@ -2729,8 +2721,8 @@
       <c r="E63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>375</v>
+      <c r="F63" s="7" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -2738,7 +2730,7 @@
         <v>104</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C64" s="2">
         <v>9360</v>
@@ -2754,8 +2746,8 @@
       <c r="A65" s="2">
         <v>486</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>159</v>
+      <c r="B65" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="C65" s="2">
         <v>686</v>
@@ -2764,15 +2756,15 @@
         <v>10</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>288</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>326</v>
+      <c r="B66" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="C66" s="2">
         <v>2228</v>
@@ -2788,8 +2780,8 @@
       <c r="A67" s="2">
         <v>316</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>328</v>
+      <c r="B67" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="C67" s="2">
         <v>1857</v>
@@ -2806,7 +2798,7 @@
         <v>536</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C68" s="2">
         <v>493</v>
@@ -2823,7 +2815,7 @@
         <v>47</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C69" s="2">
         <v>17334</v>
@@ -2839,8 +2831,8 @@
       <c r="A70" s="2">
         <v>137</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>317</v>
+      <c r="B70" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="C70" s="2">
         <v>6532</v>
@@ -2856,8 +2848,8 @@
       <c r="A71" s="2">
         <v>77</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>32</v>
+      <c r="B71" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C71" s="2">
         <v>11605</v>
@@ -2868,8 +2860,8 @@
       <c r="E71" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>376</v>
+      <c r="F71" s="7" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -2877,7 +2869,7 @@
         <v>315</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2">
         <v>1880</v>
@@ -2886,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -2894,7 +2886,7 @@
         <v>33</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C73" s="2">
         <v>21988</v>
@@ -2911,7 +2903,7 @@
         <v>291</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C74" s="2">
         <v>2210</v>
@@ -2928,7 +2920,7 @@
         <v>122</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C75" s="2">
         <v>7799</v>
@@ -2945,7 +2937,7 @@
         <v>281</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C76" s="2">
         <v>2360</v>
@@ -2962,7 +2954,7 @@
         <v>523</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C77" s="2">
         <v>529</v>
@@ -2971,15 +2963,15 @@
         <v>10</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>573</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>346</v>
+      <c r="B78" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="C78" s="2">
         <v>391</v>
@@ -2988,10 +2980,10 @@
         <v>10</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>377</v>
+        <v>366</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2999,7 +2991,7 @@
         <v>709</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C79" s="2">
         <v>64</v>
@@ -3015,8 +3007,8 @@
       <c r="A80" s="2">
         <v>192</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>321</v>
+      <c r="B80" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="C80" s="2">
         <v>4494</v>
@@ -3033,7 +3025,7 @@
         <v>386</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C81" s="2">
         <v>1211</v>
@@ -3049,8 +3041,8 @@
       <c r="A82" s="2">
         <v>180</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>371</v>
+      <c r="B82" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="C82" s="2">
         <v>4788</v>
@@ -3059,18 +3051,18 @@
         <v>10</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>378</v>
+        <v>357</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>602</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>352</v>
+      <c r="B83" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="C83" s="2">
         <v>317</v>
@@ -3079,18 +3071,18 @@
         <v>10</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>373</v>
+        <v>366</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>58</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>23</v>
+      <c r="B84" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C84" s="2">
         <v>14186</v>
@@ -3099,10 +3091,10 @@
         <v>10</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>379</v>
+        <v>23</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -3110,7 +3102,7 @@
         <v>187</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C85" s="2">
         <v>4592</v>
@@ -3126,8 +3118,8 @@
       <c r="A86" s="2">
         <v>131</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>50</v>
+      <c r="B86" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C86" s="2">
         <v>6962</v>
@@ -3144,7 +3136,7 @@
         <v>624</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C87" s="2">
         <v>252</v>
@@ -3160,8 +3152,8 @@
       <c r="A88" s="2">
         <v>521</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>343</v>
+      <c r="B88" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="C88" s="2">
         <v>539</v>
@@ -3170,15 +3162,15 @@
         <v>10</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>579</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>347</v>
+      <c r="B89" s="6" t="s">
+        <v>346</v>
       </c>
       <c r="C89" s="2">
         <v>377</v>
@@ -3187,10 +3179,10 @@
         <v>10</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>381</v>
+        <v>366</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -3198,7 +3190,7 @@
         <v>28</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C90" s="2">
         <v>24391</v>
@@ -3214,8 +3206,8 @@
       <c r="A91" s="2">
         <v>538</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>185</v>
+      <c r="B91" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="C91" s="2">
         <v>493</v>
@@ -3226,8 +3218,8 @@
       <c r="E91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="8" t="s">
-        <v>380</v>
+      <c r="F91" s="7" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3235,16 +3227,16 @@
         <v>710</v>
       </c>
       <c r="B92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C92">
         <v>58</v>
       </c>
       <c r="D92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -3252,16 +3244,16 @@
         <v>711</v>
       </c>
       <c r="B93" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C93">
         <v>54</v>
       </c>
       <c r="D93" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -3269,16 +3261,16 @@
         <v>752</v>
       </c>
       <c r="B94" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C94">
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -3286,16 +3278,16 @@
         <v>547</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C95">
         <v>471</v>
       </c>
       <c r="D95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -3303,16 +3295,16 @@
         <v>589</v>
       </c>
       <c r="B96" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C96">
         <v>360</v>
       </c>
       <c r="D96" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -3320,16 +3312,16 @@
         <v>705</v>
       </c>
       <c r="B97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C97">
         <v>68</v>
       </c>
       <c r="D97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -3337,16 +3329,16 @@
         <v>498</v>
       </c>
       <c r="B98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C98">
         <v>634</v>
       </c>
       <c r="D98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -3354,16 +3346,16 @@
         <v>506</v>
       </c>
       <c r="B99" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C99">
         <v>584</v>
       </c>
       <c r="D99" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E99" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -3371,16 +3363,16 @@
         <v>609</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C100">
         <v>288</v>
       </c>
       <c r="D100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -3388,16 +3380,16 @@
         <v>618</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C101">
         <v>266</v>
       </c>
       <c r="D101" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E101" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -3405,16 +3397,16 @@
         <v>747</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C102">
         <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E102" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -3422,16 +3414,16 @@
         <v>743</v>
       </c>
       <c r="B103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C103">
         <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E103" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -3439,16 +3431,16 @@
         <v>744</v>
       </c>
       <c r="B104" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C104">
         <v>17</v>
       </c>
       <c r="D104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E104" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -3456,16 +3448,16 @@
         <v>511</v>
       </c>
       <c r="B105" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C105">
         <v>561</v>
       </c>
       <c r="D105" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E105" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -3473,16 +3465,16 @@
         <v>725</v>
       </c>
       <c r="B106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C106">
         <v>37</v>
       </c>
       <c r="D106" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E106" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -3490,16 +3482,16 @@
         <v>525</v>
       </c>
       <c r="B107" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C107">
         <v>526</v>
       </c>
       <c r="D107" t="s">
+        <v>180</v>
+      </c>
+      <c r="E107" t="s">
         <v>181</v>
-      </c>
-      <c r="E107" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -3507,16 +3499,16 @@
         <v>726</v>
       </c>
       <c r="B108" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C108">
         <v>36</v>
       </c>
       <c r="D108" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E108" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -3524,7 +3516,7 @@
         <v>522</v>
       </c>
       <c r="B109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C109">
         <v>530</v>
@@ -3541,7 +3533,7 @@
         <v>365</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C110">
         <v>1373</v>
@@ -3558,7 +3550,7 @@
         <v>369</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C111">
         <v>1360</v>
@@ -3575,7 +3567,7 @@
         <v>640</v>
       </c>
       <c r="B112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C112">
         <v>206</v>
@@ -3592,7 +3584,7 @@
         <v>681</v>
       </c>
       <c r="B113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C113">
         <v>118</v>
@@ -3609,7 +3601,7 @@
         <v>699</v>
       </c>
       <c r="B114" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C114">
         <v>80</v>
@@ -3626,7 +3618,7 @@
         <v>509</v>
       </c>
       <c r="B115" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C115">
         <v>566</v>
@@ -3643,7 +3635,7 @@
         <v>157</v>
       </c>
       <c r="B116" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C116">
         <v>5818</v>
@@ -3660,7 +3652,7 @@
         <v>722</v>
       </c>
       <c r="B117" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C117">
         <v>40</v>
@@ -3677,7 +3669,7 @@
         <v>381</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C118">
         <v>1257</v>
@@ -3711,7 +3703,7 @@
         <v>256</v>
       </c>
       <c r="B120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C120">
         <v>2816</v>
@@ -3728,7 +3720,7 @@
         <v>581</v>
       </c>
       <c r="B121" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C121">
         <v>370</v>
@@ -3745,7 +3737,7 @@
         <v>507</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C122">
         <v>580</v>
@@ -3762,7 +3754,7 @@
         <v>120</v>
       </c>
       <c r="B123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C123">
         <v>7855</v>
@@ -3779,7 +3771,7 @@
         <v>130</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C124">
         <v>7050</v>
@@ -3796,7 +3788,7 @@
         <v>461</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C125">
         <v>765</v>
@@ -3813,7 +3805,7 @@
         <v>611</v>
       </c>
       <c r="B126" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C126">
         <v>287</v>
@@ -3830,7 +3822,7 @@
         <v>363</v>
       </c>
       <c r="B127" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C127">
         <v>1397</v>
@@ -3847,7 +3839,7 @@
         <v>502</v>
       </c>
       <c r="B128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C128">
         <v>596</v>
@@ -3864,7 +3856,7 @@
         <v>562</v>
       </c>
       <c r="B129" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C129">
         <v>436</v>
@@ -3881,7 +3873,7 @@
         <v>622</v>
       </c>
       <c r="B130" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C130">
         <v>259</v>
@@ -3898,7 +3890,7 @@
         <v>329</v>
       </c>
       <c r="B131" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C131">
         <v>1774</v>
@@ -3915,7 +3907,7 @@
         <v>553</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C132">
         <v>456</v>
@@ -3932,7 +3924,7 @@
         <v>387</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C133">
         <v>1190</v>
@@ -3949,7 +3941,7 @@
         <v>60</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C134">
         <v>13837</v>
@@ -3966,7 +3958,7 @@
         <v>379</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C135">
         <v>1258</v>
@@ -3983,7 +3975,7 @@
         <v>551</v>
       </c>
       <c r="B136" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C136">
         <v>460</v>
@@ -4000,7 +3992,7 @@
         <v>623</v>
       </c>
       <c r="B137" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C137">
         <v>255</v>
@@ -4017,7 +4009,7 @@
         <v>123</v>
       </c>
       <c r="B138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C138">
         <v>7783</v>
@@ -4034,7 +4026,7 @@
         <v>728</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C139">
         <v>33</v>
@@ -4043,7 +4035,7 @@
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -4051,7 +4043,7 @@
         <v>189</v>
       </c>
       <c r="B140" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C140">
         <v>4561</v>
@@ -4068,7 +4060,7 @@
         <v>474</v>
       </c>
       <c r="B141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C141">
         <v>708</v>
@@ -4085,7 +4077,7 @@
         <v>127</v>
       </c>
       <c r="B142" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C142">
         <v>7362</v>
@@ -4102,7 +4094,7 @@
         <v>436</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143">
         <v>884</v>
@@ -4119,7 +4111,7 @@
         <v>175</v>
       </c>
       <c r="B144" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C144">
         <v>5050</v>
@@ -4136,7 +4128,7 @@
         <v>231</v>
       </c>
       <c r="B145" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C145">
         <v>3403</v>
@@ -4153,7 +4145,7 @@
         <v>679</v>
       </c>
       <c r="B146" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C146">
         <v>121</v>
@@ -4170,7 +4162,7 @@
         <v>438</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C147">
         <v>882</v>
@@ -4187,7 +4179,7 @@
         <v>395</v>
       </c>
       <c r="B148" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C148">
         <v>1161</v>
@@ -4204,7 +4196,7 @@
         <v>736</v>
       </c>
       <c r="B149" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C149">
         <v>22</v>
@@ -4221,7 +4213,7 @@
         <v>424</v>
       </c>
       <c r="B150" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C150">
         <v>924</v>
@@ -4238,7 +4230,7 @@
         <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C151">
         <v>6312</v>
@@ -4255,7 +4247,7 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C152">
         <v>6123</v>
@@ -4272,7 +4264,7 @@
         <v>440</v>
       </c>
       <c r="B153" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C153">
         <v>872</v>
@@ -4289,7 +4281,7 @@
         <v>401</v>
       </c>
       <c r="B154" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C154">
         <v>1118</v>
@@ -4306,7 +4298,7 @@
         <v>117</v>
       </c>
       <c r="B155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C155">
         <v>8089</v>
@@ -4323,7 +4315,7 @@
         <v>425</v>
       </c>
       <c r="B156" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C156">
         <v>923</v>
@@ -4340,7 +4332,7 @@
         <v>392</v>
       </c>
       <c r="B157" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C157">
         <v>1173</v>
@@ -4357,7 +4349,7 @@
         <v>378</v>
       </c>
       <c r="B158" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C158">
         <v>1274</v>
@@ -4374,7 +4366,7 @@
         <v>420</v>
       </c>
       <c r="B159" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C159">
         <v>949</v>
@@ -4391,7 +4383,7 @@
         <v>724</v>
       </c>
       <c r="B160" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C160">
         <v>39</v>
@@ -4400,7 +4392,7 @@
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -4408,7 +4400,7 @@
         <v>125</v>
       </c>
       <c r="B161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C161">
         <v>7591</v>
@@ -4425,7 +4417,7 @@
         <v>413</v>
       </c>
       <c r="B162" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C162">
         <v>1026</v>
@@ -4442,7 +4434,7 @@
         <v>746</v>
       </c>
       <c r="B163" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C163">
         <v>12</v>
@@ -4459,7 +4451,7 @@
         <v>158</v>
       </c>
       <c r="B164" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C164">
         <v>5706</v>
@@ -4476,7 +4468,7 @@
         <v>67</v>
       </c>
       <c r="B165" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C165">
         <v>12739</v>
@@ -4493,7 +4485,7 @@
         <v>635</v>
       </c>
       <c r="B166" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C166">
         <v>211</v>
@@ -4510,7 +4502,7 @@
         <v>114</v>
       </c>
       <c r="B167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C167">
         <v>8331</v>
@@ -4527,7 +4519,7 @@
         <v>688</v>
       </c>
       <c r="B168" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C168">
         <v>101</v>
@@ -4544,7 +4536,7 @@
         <v>309</v>
       </c>
       <c r="B169" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C169">
         <v>1949</v>
@@ -4561,7 +4553,7 @@
         <v>218</v>
       </c>
       <c r="B170" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C170">
         <v>3570</v>
@@ -4595,7 +4587,7 @@
         <v>85</v>
       </c>
       <c r="B172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C172">
         <v>10874</v>
@@ -4612,7 +4604,7 @@
         <v>667</v>
       </c>
       <c r="B173" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C173">
         <v>139</v>
@@ -4621,7 +4613,7 @@
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -4629,7 +4621,7 @@
         <v>82</v>
       </c>
       <c r="B174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C174">
         <v>11037</v>
@@ -4646,7 +4638,7 @@
         <v>484</v>
       </c>
       <c r="B175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C175">
         <v>689</v>
@@ -4663,7 +4655,7 @@
         <v>759</v>
       </c>
       <c r="B176" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C176">
         <v>6</v>
@@ -4680,7 +4672,7 @@
         <v>207</v>
       </c>
       <c r="B177" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C177">
         <v>3911</v>
@@ -4697,7 +4689,7 @@
         <v>549</v>
       </c>
       <c r="B178" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C178">
         <v>462</v>
@@ -4714,7 +4706,7 @@
         <v>70</v>
       </c>
       <c r="B179" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C179">
         <v>12408</v>
@@ -4731,7 +4723,7 @@
         <v>285</v>
       </c>
       <c r="B180" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C180">
         <v>2278</v>
@@ -4748,7 +4740,7 @@
         <v>45</v>
       </c>
       <c r="B181" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C181">
         <v>17602</v>
@@ -4765,7 +4757,7 @@
         <v>311</v>
       </c>
       <c r="B182" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C182">
         <v>1933</v>
@@ -4782,7 +4774,7 @@
         <v>312</v>
       </c>
       <c r="B183" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C183">
         <v>1920</v>
@@ -4799,7 +4791,7 @@
         <v>91</v>
       </c>
       <c r="B184" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C184">
         <v>10362</v>
@@ -4816,7 +4808,7 @@
         <v>466</v>
       </c>
       <c r="B185" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C185">
         <v>753</v>
@@ -4833,7 +4825,7 @@
         <v>514</v>
       </c>
       <c r="B186" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C186">
         <v>547</v>
@@ -4850,7 +4842,7 @@
         <v>246</v>
       </c>
       <c r="B187" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C187">
         <v>2933</v>
@@ -4867,7 +4859,7 @@
         <v>132</v>
       </c>
       <c r="B188" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C188">
         <v>6855</v>
@@ -4884,7 +4876,7 @@
         <v>512</v>
       </c>
       <c r="B189" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C189">
         <v>558</v>
@@ -4901,7 +4893,7 @@
         <v>259</v>
       </c>
       <c r="B190" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C190">
         <v>2771</v>
@@ -4918,7 +4910,7 @@
         <v>396</v>
       </c>
       <c r="B191" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C191">
         <v>1156</v>
@@ -4935,7 +4927,7 @@
         <v>149</v>
       </c>
       <c r="B192" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C192">
         <v>6200</v>
@@ -4952,7 +4944,7 @@
         <v>289</v>
       </c>
       <c r="B193" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C193">
         <v>2225</v>
@@ -4986,7 +4978,7 @@
         <v>322</v>
       </c>
       <c r="B195" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C195">
         <v>1833</v>
@@ -5003,7 +4995,7 @@
         <v>428</v>
       </c>
       <c r="B196" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C196">
         <v>918</v>
@@ -5020,7 +5012,7 @@
         <v>676</v>
       </c>
       <c r="B197" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C197">
         <v>126</v>
@@ -5037,7 +5029,7 @@
         <v>23</v>
       </c>
       <c r="B198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C198">
         <v>27619</v>
@@ -5054,7 +5046,7 @@
         <v>497</v>
       </c>
       <c r="B199" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C199">
         <v>650</v>
@@ -5071,7 +5063,7 @@
         <v>501</v>
       </c>
       <c r="B200" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C200">
         <v>612</v>
@@ -5088,7 +5080,7 @@
         <v>733</v>
       </c>
       <c r="B201" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C201">
         <v>26</v>
@@ -5105,7 +5097,7 @@
         <v>592</v>
       </c>
       <c r="B202" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C202">
         <v>348</v>
@@ -5122,7 +5114,7 @@
         <v>144</v>
       </c>
       <c r="B203" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C203">
         <v>6379</v>
@@ -5139,7 +5131,7 @@
         <v>718</v>
       </c>
       <c r="B204" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C204">
         <v>45</v>
@@ -5156,7 +5148,7 @@
         <v>226</v>
       </c>
       <c r="B205" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C205">
         <v>3442</v>
@@ -5173,7 +5165,7 @@
         <v>216</v>
       </c>
       <c r="B206" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C206">
         <v>3614</v>
@@ -5190,7 +5182,7 @@
         <v>342</v>
       </c>
       <c r="B207" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C207">
         <v>1621</v>
@@ -5207,7 +5199,7 @@
         <v>546</v>
       </c>
       <c r="B208" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C208">
         <v>473</v>
@@ -5224,7 +5216,7 @@
         <v>290</v>
       </c>
       <c r="B209" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C209">
         <v>2223</v>
@@ -5241,7 +5233,7 @@
         <v>615</v>
       </c>
       <c r="B210" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C210">
         <v>276</v>
@@ -5258,7 +5250,7 @@
         <v>97</v>
       </c>
       <c r="B211" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C211">
         <v>9802</v>
@@ -5275,7 +5267,7 @@
         <v>472</v>
       </c>
       <c r="B212" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C212">
         <v>721</v>
@@ -5292,7 +5284,7 @@
         <v>142</v>
       </c>
       <c r="B213" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C213">
         <v>6430</v>
@@ -5309,7 +5301,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C214">
         <v>3741</v>
@@ -5326,7 +5318,7 @@
         <v>327</v>
       </c>
       <c r="B215" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C215">
         <v>1805</v>
@@ -5343,7 +5335,7 @@
         <v>258</v>
       </c>
       <c r="B216" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C216">
         <v>2785</v>
@@ -5360,7 +5352,7 @@
         <v>250</v>
       </c>
       <c r="B217" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C217">
         <v>2885</v>
@@ -5377,7 +5369,7 @@
         <v>245</v>
       </c>
       <c r="B218" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C218">
         <v>2976</v>
@@ -5394,7 +5386,7 @@
         <v>183</v>
       </c>
       <c r="B219" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C219">
         <v>4702</v>
@@ -5411,7 +5403,7 @@
         <v>638</v>
       </c>
       <c r="B220" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C220">
         <v>207</v>
@@ -5428,7 +5420,7 @@
         <v>348</v>
       </c>
       <c r="B221" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C221">
         <v>1580</v>
@@ -5445,7 +5437,7 @@
         <v>110</v>
       </c>
       <c r="B222" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C222">
         <v>8755</v>
@@ -5462,7 +5454,7 @@
         <v>402</v>
       </c>
       <c r="B223" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C223">
         <v>1103</v>
@@ -5479,7 +5471,7 @@
         <v>757</v>
       </c>
       <c r="B224" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C224">
         <v>7</v>
@@ -5496,7 +5488,7 @@
         <v>517</v>
       </c>
       <c r="B225" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C225">
         <v>545</v>
@@ -5513,7 +5505,7 @@
         <v>597</v>
       </c>
       <c r="B226" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C226">
         <v>328</v>
@@ -5530,7 +5522,7 @@
         <v>80</v>
       </c>
       <c r="B227" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C227">
         <v>11163</v>
@@ -5547,7 +5539,7 @@
         <v>283</v>
       </c>
       <c r="B228" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C228">
         <v>2346</v>
@@ -5564,7 +5556,7 @@
         <v>577</v>
       </c>
       <c r="B229" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C229">
         <v>380</v>
@@ -5581,7 +5573,7 @@
         <v>364</v>
       </c>
       <c r="B230" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C230">
         <v>1378</v>
@@ -5598,7 +5590,7 @@
         <v>490</v>
       </c>
       <c r="B231" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C231">
         <v>676</v>
@@ -5615,7 +5607,7 @@
         <v>712</v>
       </c>
       <c r="B232" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C232">
         <v>53</v>
@@ -5632,7 +5624,7 @@
         <v>654</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233">
         <v>183</v>
@@ -5649,7 +5641,7 @@
         <v>642</v>
       </c>
       <c r="B234" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C234">
         <v>204</v>
@@ -5666,7 +5658,7 @@
         <v>148</v>
       </c>
       <c r="B235" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C235">
         <v>6225</v>
@@ -5683,7 +5675,7 @@
         <v>530</v>
       </c>
       <c r="B236" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C236">
         <v>519</v>
@@ -5700,7 +5692,7 @@
         <v>385</v>
       </c>
       <c r="B237" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C237">
         <v>1218</v>
@@ -5717,7 +5709,7 @@
         <v>176</v>
       </c>
       <c r="B238" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C238">
         <v>5046</v>
@@ -5734,7 +5726,7 @@
         <v>508</v>
       </c>
       <c r="B239" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C239">
         <v>569</v>
@@ -5751,7 +5743,7 @@
         <v>373</v>
       </c>
       <c r="B240" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C240">
         <v>1312</v>
@@ -5768,7 +5760,7 @@
         <v>456</v>
       </c>
       <c r="B241" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C241">
         <v>778</v>
@@ -5785,7 +5777,7 @@
         <v>377</v>
       </c>
       <c r="B242" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C242">
         <v>1280</v>
@@ -5802,7 +5794,7 @@
         <v>102</v>
       </c>
       <c r="B243" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C243">
         <v>9395</v>
@@ -5819,7 +5811,7 @@
         <v>310</v>
       </c>
       <c r="B244" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C244">
         <v>1941</v>
@@ -5836,7 +5828,7 @@
         <v>499</v>
       </c>
       <c r="B245" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C245">
         <v>629</v>
@@ -5870,7 +5862,7 @@
         <v>300</v>
       </c>
       <c r="B247" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C247">
         <v>2095</v>
@@ -5879,7 +5871,7 @@
         <v>3</v>
       </c>
       <c r="E247" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -5887,7 +5879,7 @@
         <v>145</v>
       </c>
       <c r="B248" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C248">
         <v>6356</v>
@@ -5904,7 +5896,7 @@
         <v>515</v>
       </c>
       <c r="B249" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C249">
         <v>547</v>
@@ -5921,7 +5913,7 @@
         <v>673</v>
       </c>
       <c r="B250" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C250">
         <v>133</v>
@@ -5938,7 +5930,7 @@
         <v>741</v>
       </c>
       <c r="B251" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C251">
         <v>19</v>
@@ -5955,7 +5947,7 @@
         <v>266</v>
       </c>
       <c r="B252" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C252">
         <v>2668</v>
@@ -5972,7 +5964,7 @@
         <v>156</v>
       </c>
       <c r="B253" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C253">
         <v>5862</v>
@@ -5989,7 +5981,7 @@
         <v>171</v>
       </c>
       <c r="B254" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C254">
         <v>5193</v>
@@ -6006,7 +5998,7 @@
         <v>333</v>
       </c>
       <c r="B255" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C255">
         <v>1721</v>
@@ -6023,7 +6015,7 @@
         <v>737</v>
       </c>
       <c r="B256" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C256">
         <v>22</v>
@@ -6040,7 +6032,7 @@
         <v>375</v>
       </c>
       <c r="B257" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C257">
         <v>1308</v>
@@ -6057,7 +6049,7 @@
         <v>612</v>
       </c>
       <c r="B258" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C258">
         <v>282</v>
@@ -6074,7 +6066,7 @@
         <v>59</v>
       </c>
       <c r="B259" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C259">
         <v>14177</v>
@@ -6091,7 +6083,7 @@
         <v>566</v>
       </c>
       <c r="B260" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C260">
         <v>415</v>
@@ -6108,7 +6100,7 @@
         <v>65</v>
       </c>
       <c r="B261" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C261">
         <v>13348</v>
@@ -6125,7 +6117,7 @@
         <v>185</v>
       </c>
       <c r="B262" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C262">
         <v>4669</v>
@@ -6142,7 +6134,7 @@
         <v>689</v>
       </c>
       <c r="B263" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C263">
         <v>101</v>
@@ -6159,7 +6151,7 @@
         <v>563</v>
       </c>
       <c r="B264" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C264">
         <v>430</v>
@@ -6176,7 +6168,7 @@
         <v>603</v>
       </c>
       <c r="B265" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C265">
         <v>315</v>
@@ -6193,7 +6185,7 @@
         <v>513</v>
       </c>
       <c r="B266" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C266">
         <v>551</v>
@@ -6210,7 +6202,7 @@
         <v>98</v>
       </c>
       <c r="B267" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C267">
         <v>9734</v>
@@ -6227,7 +6219,7 @@
         <v>480</v>
       </c>
       <c r="B268" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C268">
         <v>698</v>
@@ -6244,7 +6236,7 @@
         <v>716</v>
       </c>
       <c r="B269" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C269">
         <v>47</v>
@@ -6261,7 +6253,7 @@
         <v>353</v>
       </c>
       <c r="B270" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C270">
         <v>1517</v>
@@ -6278,7 +6270,7 @@
         <v>423</v>
       </c>
       <c r="B271" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C271">
         <v>933</v>
@@ -6295,7 +6287,7 @@
         <v>320</v>
       </c>
       <c r="B272" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C272">
         <v>1841</v>
@@ -6312,7 +6304,7 @@
         <v>280</v>
       </c>
       <c r="B273" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C273">
         <v>2390</v>
@@ -6329,16 +6321,16 @@
         <v>762</v>
       </c>
       <c r="B274" t="s">
+        <v>292</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274" t="s">
+        <v>3</v>
+      </c>
+      <c r="E274" t="s">
         <v>293</v>
-      </c>
-      <c r="C274">
-        <v>3</v>
-      </c>
-      <c r="D274" t="s">
-        <v>3</v>
-      </c>
-      <c r="E274" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -6346,7 +6338,7 @@
         <v>271</v>
       </c>
       <c r="B275" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C275">
         <v>2514</v>
@@ -6363,7 +6355,7 @@
         <v>146</v>
       </c>
       <c r="B276" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C276">
         <v>6328</v>
@@ -6380,7 +6372,7 @@
         <v>335</v>
       </c>
       <c r="B277" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C277">
         <v>1703</v>
@@ -6397,7 +6389,7 @@
         <v>742</v>
       </c>
       <c r="B278" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C278">
         <v>19</v>
@@ -6414,7 +6406,7 @@
         <v>532</v>
       </c>
       <c r="B279" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C279">
         <v>506</v>
@@ -6431,7 +6423,7 @@
         <v>301</v>
       </c>
       <c r="B280" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C280">
         <v>2091</v>
@@ -6448,7 +6440,7 @@
         <v>643</v>
       </c>
       <c r="B281" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C281">
         <v>200</v>
@@ -6465,7 +6457,7 @@
         <v>605</v>
       </c>
       <c r="B282" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C282">
         <v>304</v>
@@ -6482,7 +6474,7 @@
         <v>703</v>
       </c>
       <c r="B283" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C283">
         <v>73</v>
@@ -6499,7 +6491,7 @@
         <v>32</v>
       </c>
       <c r="B284" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C284">
         <v>22371</v>
@@ -6516,7 +6508,7 @@
         <v>717</v>
       </c>
       <c r="B285" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C285">
         <v>46</v>
@@ -6533,7 +6525,7 @@
         <v>696</v>
       </c>
       <c r="B286" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C286">
         <v>90</v>
@@ -6550,7 +6542,7 @@
         <v>411</v>
       </c>
       <c r="B287" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C287">
         <v>1038</v>
@@ -6567,7 +6559,7 @@
         <v>400</v>
       </c>
       <c r="B288" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C288">
         <v>1123</v>
@@ -6584,7 +6576,7 @@
         <v>708</v>
       </c>
       <c r="B289" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C289">
         <v>65</v>
@@ -6601,7 +6593,7 @@
         <v>343</v>
       </c>
       <c r="B290" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C290">
         <v>1610</v>
@@ -6618,7 +6610,7 @@
         <v>463</v>
       </c>
       <c r="B291" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C291">
         <v>758</v>
@@ -6635,7 +6627,7 @@
         <v>492</v>
       </c>
       <c r="B292" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C292">
         <v>666</v>
@@ -6652,7 +6644,7 @@
         <v>244</v>
       </c>
       <c r="B293" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C293">
         <v>3030</v>
@@ -6669,7 +6661,7 @@
         <v>661</v>
       </c>
       <c r="B294" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C294">
         <v>154</v>
@@ -6686,7 +6678,7 @@
         <v>677</v>
       </c>
       <c r="B295" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C295">
         <v>126</v>
@@ -6703,7 +6695,7 @@
         <v>382</v>
       </c>
       <c r="B296" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C296">
         <v>1254</v>
@@ -6720,7 +6712,7 @@
         <v>599</v>
       </c>
       <c r="B297" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C297">
         <v>327</v>
@@ -6737,7 +6729,7 @@
         <v>217</v>
       </c>
       <c r="B298" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C298">
         <v>3600</v>
@@ -6754,16 +6746,16 @@
         <v>358</v>
       </c>
       <c r="B299" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C299">
         <v>1460</v>
       </c>
       <c r="D299" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E299" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -6771,13 +6763,13 @@
         <v>720</v>
       </c>
       <c r="B300" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C300">
         <v>45</v>
       </c>
       <c r="E300" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -6785,13 +6777,13 @@
         <v>723</v>
       </c>
       <c r="B301" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C301">
         <v>40</v>
       </c>
       <c r="E301" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/智库停止采集网站问题(299_777)-20220527.xlsx
+++ b/智库停止采集网站问题(299_777)-20220527.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gerapy\projects\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB38E7E-8A02-46B6-9BA8-0F4F6FE27768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE2D1C8-E2DA-470E-85BC-A0FA9E8E67B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6450" yWindow="0" windowWidth="19125" windowHeight="15750" xr2:uid="{98ECC274-F321-457B-899E-F66266E5CB0E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="383">
   <si>
     <t>反爬</t>
   </si>
@@ -1194,6 +1194,10 @@
   </si>
   <si>
     <t>需要翻墙代理，有cdn反爬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cato.org</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1259,7 +1263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,6 +1279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,7 +1306,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1319,6 +1329,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1640,7 +1656,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2692,7 +2708,7 @@
       <c r="A62" s="2">
         <v>20</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="2">
@@ -2703,6 +2719,9 @@
       </c>
       <c r="E62" s="2" t="s">
         <v>381</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -3024,7 +3043,7 @@
       <c r="A81" s="2">
         <v>386</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="9" t="s">
         <v>330</v>
       </c>
       <c r="C81" s="2">
@@ -6801,8 +6820,9 @@
     <hyperlink ref="F84" r:id="rId7" xr:uid="{5FE84AC5-E1C4-4C5C-BDE4-0EEFBCF9271E}"/>
     <hyperlink ref="F89" r:id="rId8" xr:uid="{E0BC9ABA-F55E-481C-913C-3E2456294801}"/>
     <hyperlink ref="F91" r:id="rId9" xr:uid="{5B5E8327-6171-4C57-A12E-E09DC0E33866}"/>
+    <hyperlink ref="F62" r:id="rId10" xr:uid="{D927EFAF-DD20-4ED6-B66C-3B1F8574053C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/智库停止采集网站问题(299_777)-20220527.xlsx
+++ b/智库停止采集网站问题(299_777)-20220527.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gerapy\projects\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE2D1C8-E2DA-470E-85BC-A0FA9E8E67B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E68CC01-4360-4AC1-BBB7-8526F3089E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="0" windowWidth="19125" windowHeight="15750" xr2:uid="{98ECC274-F321-457B-899E-F66266E5CB0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{98ECC274-F321-457B-899E-F66266E5CB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="智库停止采集网站问题" sheetId="2" r:id="rId1"/>
@@ -1263,7 +1263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1279,12 +1279,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,7 +1300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1333,9 +1327,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1656,7 +1647,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3043,7 +3034,7 @@
       <c r="A81" s="2">
         <v>386</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="6" t="s">
         <v>330</v>
       </c>
       <c r="C81" s="2">
